--- a/final_data_pipeline/output/325120longform_elec_options_nowhp.xlsx
+++ b/final_data_pipeline/output/325120longform_elec_options_nowhp.xlsx
@@ -871,7 +871,7 @@
         <v>60</v>
       </c>
       <c r="I7">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J7">
         <v>8000</v>
@@ -1106,7 +1106,7 @@
         <v>60</v>
       </c>
       <c r="I12">
-        <v>10</v>
+        <v>12.41429539295394</v>
       </c>
       <c r="J12">
         <v>8000</v>
@@ -1153,7 +1153,7 @@
         <v>60</v>
       </c>
       <c r="I13">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J13">
         <v>8000</v>
@@ -1247,7 +1247,7 @@
         <v>60</v>
       </c>
       <c r="I15">
-        <v>10</v>
+        <v>21.79166666666666</v>
       </c>
       <c r="J15">
         <v>8000</v>
@@ -1294,7 +1294,7 @@
         <v>60</v>
       </c>
       <c r="I16">
-        <v>10</v>
+        <v>13.75752314814816</v>
       </c>
       <c r="J16">
         <v>8000</v>
@@ -1623,7 +1623,7 @@
         <v>60</v>
       </c>
       <c r="I23">
-        <v>10</v>
+        <v>20.68981481481483</v>
       </c>
       <c r="J23">
         <v>8000</v>
@@ -1764,7 +1764,7 @@
         <v>60</v>
       </c>
       <c r="I26">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="J26">
         <v>8000</v>
@@ -1811,7 +1811,7 @@
         <v>60</v>
       </c>
       <c r="I27">
-        <v>10</v>
+        <v>12.67039049919483</v>
       </c>
       <c r="J27">
         <v>8000</v>
@@ -1858,7 +1858,7 @@
         <v>60</v>
       </c>
       <c r="I28">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="J28">
         <v>8000</v>
